--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1465.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1465.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.312733237353281</v>
+        <v>1.150978565216064</v>
       </c>
       <c r="B1">
-        <v>1.577300319076528</v>
+        <v>2.969846725463867</v>
       </c>
       <c r="C1">
-        <v>2.123963960337089</v>
+        <v>3.74387526512146</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.467932939529419</v>
       </c>
       <c r="E1">
-        <v>1.174600328275601</v>
+        <v>1.198373198509216</v>
       </c>
     </row>
   </sheetData>
